--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L3-帳務作業/LoanRateChange.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L3-帳務作業/LoanRateChange.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24729"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L3-帳務作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L3-帳務作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB40802C-A640-46FD-9DCA-00A81DD800CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22992" windowHeight="8988"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -245,10 +244,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Status</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>IncrFlag</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -366,11 +361,6 @@
   </si>
   <si>
     <t>利率區分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0:正常
-1:整批更新</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -403,11 +393,21 @@
 N:否</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:一般利率
+1:批次新增利率
+2:階梯利率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -748,23 +748,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -800,23 +783,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -992,11 +958,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1017,10 +983,10 @@
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E1" s="21"/>
       <c r="F1" s="22"/>
@@ -1051,7 +1017,7 @@
       </c>
       <c r="B3" s="29"/>
       <c r="C3" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D3" s="23" t="s">
         <v>32</v>
@@ -1069,7 +1035,7 @@
       </c>
       <c r="B4" s="28"/>
       <c r="C4" s="16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D4" s="16" t="s">
         <v>49</v>
@@ -1087,7 +1053,7 @@
       </c>
       <c r="B5" s="29"/>
       <c r="C5" s="8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D5" s="23"/>
       <c r="E5" s="21"/>
@@ -1214,13 +1180,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C12" s="15" t="s">
         <v>17</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E12" s="4">
         <v>8</v>
@@ -1228,13 +1194,13 @@
       <c r="G12" s="8"/>
       <c r="H12" s="5"/>
     </row>
-    <row r="13" spans="1:10" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="C13" s="15" t="s">
         <v>18</v>
@@ -1246,7 +1212,7 @@
         <v>1</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="H13" s="5"/>
     </row>
@@ -1256,19 +1222,19 @@
         <v>6</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E14" s="4">
         <v>1</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H14" s="5"/>
     </row>
@@ -1301,7 +1267,7 @@
         <v>43</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>56</v>
@@ -1310,7 +1276,7 @@
         <v>2</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -1320,7 +1286,7 @@
         <v>9</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C17" s="15" t="s">
         <v>35</v>
@@ -1332,7 +1298,7 @@
         <v>1</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H17" s="5"/>
     </row>
@@ -1437,7 +1403,7 @@
         <v>13</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E22" s="4">
         <v>8</v>
@@ -1457,7 +1423,7 @@
         <v>22</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E23" s="4">
         <v>6</v>
@@ -1471,7 +1437,7 @@
         <v>16</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C24" s="15" t="s">
         <v>14</v>
@@ -1576,7 +1542,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
@@ -1605,73 +1571,73 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>79</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>72</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L3-帳務作業/LoanRateChange.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L3-帳務作業/LoanRateChange.xlsx
@@ -1,27 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L3-帳務作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L3-帳務作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCDF5C8F-3007-4945-B9F2-62882D86E265}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22992" windowHeight="8988"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
+    <sheet name="OtherFields" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -29,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="106">
   <si>
     <t>備註說明</t>
   </si>
@@ -403,12 +406,47 @@
 2:階梯利率</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>OtherFields</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JsonFields</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT  JSON_VALUE  ("OtherFields",  '$.CaseCloseCode') AS CaseCloseCode</t>
+  </si>
+  <si>
+    <t>IncrEffectDate</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>加碼利率生效日</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>DECIMALD</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022-05-06智偉新增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>資料轉換時，LA$ASCP生效日與LA$IRTP生效日不同時，將LA$ASCP生效日放在這欄位</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -473,6 +511,27 @@
       <family val="1"/>
       <charset val="136"/>
       <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="標楷體"/>
+      <family val="4"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="標楷體"/>
+      <family val="4"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="3">
@@ -564,7 +623,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -637,6 +696,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -653,6 +721,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -748,6 +822,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -783,6 +874,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -958,11 +1066,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -971,17 +1079,18 @@
     <col min="2" max="2" width="17.77734375" style="4" customWidth="1"/>
     <col min="3" max="3" width="35.109375" style="3" customWidth="1"/>
     <col min="4" max="4" width="17.33203125" style="9" customWidth="1"/>
-    <col min="5" max="6" width="4.6640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="6.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.6640625" style="4" customWidth="1"/>
     <col min="7" max="7" width="46.109375" style="4" customWidth="1"/>
     <col min="8" max="8" width="41" style="10" customWidth="1"/>
     <col min="9" max="16384" width="21.44140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="25"/>
+      <c r="B1" s="28"/>
       <c r="C1" s="13" t="s">
         <v>64</v>
       </c>
@@ -996,8 +1105,8 @@
       <c r="J1" s="22"/>
     </row>
     <row r="2" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="24"/>
-      <c r="B2" s="25"/>
+      <c r="A2" s="27"/>
+      <c r="B2" s="28"/>
       <c r="C2" s="11" t="s">
         <v>7</v>
       </c>
@@ -1012,10 +1121,10 @@
       <c r="J2" s="22"/>
     </row>
     <row r="3" spans="1:10" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="29"/>
+      <c r="B3" s="32"/>
       <c r="C3" s="16" t="s">
         <v>62</v>
       </c>
@@ -1030,10 +1139,10 @@
       <c r="J3" s="22"/>
     </row>
     <row r="4" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="28"/>
+      <c r="B4" s="31"/>
       <c r="C4" s="16" t="s">
         <v>87</v>
       </c>
@@ -1048,10 +1157,10 @@
       <c r="J4" s="22"/>
     </row>
     <row r="5" spans="1:10" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="29"/>
+      <c r="B5" s="32"/>
       <c r="C5" s="8" t="s">
         <v>91</v>
       </c>
@@ -1064,10 +1173,10 @@
       <c r="J5" s="22"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="27"/>
+      <c r="B6" s="30"/>
       <c r="C6" s="7"/>
       <c r="D6" s="23"/>
       <c r="E6" s="21"/>
@@ -1078,10 +1187,10 @@
       <c r="J6" s="22"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="28"/>
+      <c r="B7" s="31"/>
       <c r="C7" s="7"/>
       <c r="D7" s="23"/>
       <c r="E7" s="21"/>
@@ -1524,6 +1633,27 @@
       </c>
       <c r="G28" s="8"/>
       <c r="H28" s="5"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="4">
+        <v>21</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E29" s="4">
+        <v>2000</v>
+      </c>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8" t="s">
+        <v>104</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1542,12 +1672,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1645,4 +1775,64 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C24C5444-93D8-4BDE-8D5A-69477DD64144}">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="26.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="95.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="26">
+        <v>1</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="E2" s="25">
+        <v>8</v>
+      </c>
+      <c r="F2" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="G2" s="24"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:I1"/>
+  </mergeCells>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L3-帳務作業/LoanRateChange.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L3-帳務作業/LoanRateChange.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L3-帳務作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCDF5C8F-3007-4945-B9F2-62882D86E265}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B4A0083-1C77-45AF-ABBB-DC1674B3BB69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -705,6 +705,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -724,9 +727,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1069,8 +1069,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1087,10 +1087,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="28"/>
+      <c r="B1" s="29"/>
       <c r="C1" s="13" t="s">
         <v>64</v>
       </c>
@@ -1105,8 +1105,8 @@
       <c r="J1" s="22"/>
     </row>
     <row r="2" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="27"/>
-      <c r="B2" s="28"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="29"/>
       <c r="C2" s="11" t="s">
         <v>7</v>
       </c>
@@ -1121,10 +1121,10 @@
       <c r="J2" s="22"/>
     </row>
     <row r="3" spans="1:10" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="32"/>
+      <c r="B3" s="33"/>
       <c r="C3" s="16" t="s">
         <v>62</v>
       </c>
@@ -1139,10 +1139,10 @@
       <c r="J3" s="22"/>
     </row>
     <row r="4" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="31"/>
+      <c r="B4" s="32"/>
       <c r="C4" s="16" t="s">
         <v>87</v>
       </c>
@@ -1157,10 +1157,10 @@
       <c r="J4" s="22"/>
     </row>
     <row r="5" spans="1:10" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="32"/>
+      <c r="B5" s="33"/>
       <c r="C5" s="8" t="s">
         <v>91</v>
       </c>
@@ -1173,10 +1173,10 @@
       <c r="J5" s="22"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="30"/>
+      <c r="B6" s="31"/>
       <c r="C6" s="7"/>
       <c r="D6" s="23"/>
       <c r="E6" s="21"/>
@@ -1187,10 +1187,10 @@
       <c r="J6" s="22"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="31"/>
+      <c r="B7" s="32"/>
       <c r="C7" s="7"/>
       <c r="D7" s="23"/>
       <c r="E7" s="21"/>
@@ -1675,16 +1675,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.88671875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="109.77734375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="26.88671875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="43.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="130" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="58" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1781,8 +1781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C24C5444-93D8-4BDE-8D5A-69477DD64144}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1795,17 +1795,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="26">
@@ -1823,7 +1823,7 @@
       <c r="E2" s="25">
         <v>8</v>
       </c>
-      <c r="F2" s="34" t="s">
+      <c r="F2" s="27" t="s">
         <v>105</v>
       </c>
       <c r="G2" s="24"/>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L3-帳務作業/LoanRateChange.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L3-帳務作業/LoanRateChange.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25128"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L3-帳務作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L3-帳務作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B4A0083-1C77-45AF-ABBB-DC1674B3BB69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
     <sheet name="OtherFields" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913" refMode="R1C1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -291,10 +290,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>rateChangeBormNoEq</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>EffectDate asc</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -441,11 +436,15 @@
     <t>資料轉換時，LA$ASCP生效日與LA$IRTP生效日不同時，將LA$ASCP生效日放在這欄位</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
+  <si>
+    <t>rateChangeBormNoEq</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -822,23 +821,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -874,23 +856,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1066,10 +1031,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -1095,7 +1060,7 @@
         <v>64</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E1" s="21"/>
       <c r="F1" s="22"/>
@@ -1144,7 +1109,7 @@
       </c>
       <c r="B4" s="32"/>
       <c r="C4" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D4" s="16" t="s">
         <v>49</v>
@@ -1162,7 +1127,7 @@
       </c>
       <c r="B5" s="33"/>
       <c r="C5" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D5" s="23"/>
       <c r="E5" s="21"/>
@@ -1309,7 +1274,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C13" s="15" t="s">
         <v>18</v>
@@ -1321,7 +1286,7 @@
         <v>1</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H13" s="5"/>
     </row>
@@ -1331,10 +1296,10 @@
         <v>6</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>61</v>
@@ -1343,7 +1308,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H14" s="5"/>
     </row>
@@ -1376,7 +1341,7 @@
         <v>43</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>56</v>
@@ -1385,7 +1350,7 @@
         <v>2</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -1407,7 +1372,7 @@
         <v>1</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H17" s="5"/>
     </row>
@@ -1639,20 +1604,20 @@
         <v>21</v>
       </c>
       <c r="B29" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="C29" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="C29" s="15" t="s">
+      <c r="D29" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>99</v>
       </c>
       <c r="E29" s="4">
         <v>2000</v>
       </c>
       <c r="G29" s="8"/>
       <c r="H29" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -1672,12 +1637,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1709,35 +1674,35 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>78</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>71</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -1745,29 +1710,29 @@
         <v>70</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1778,7 +1743,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C24C5444-93D8-4BDE-8D5A-69477DD64144}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1796,7 +1761,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="34" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B1" s="34"/>
       <c r="C1" s="34"/>
@@ -1812,19 +1777,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="D2" s="25" t="s">
         <v>102</v>
-      </c>
-      <c r="D2" s="25" t="s">
-        <v>103</v>
       </c>
       <c r="E2" s="25">
         <v>8</v>
       </c>
       <c r="F2" s="27" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G2" s="24"/>
     </row>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L3-帳務作業/LoanRateChange.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L3-帳務作業/LoanRateChange.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8925" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -414,9 +414,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SELECT  JSON_VALUE  ("OtherFields",  '$.CaseCloseCode') AS CaseCloseCode</t>
-  </si>
-  <si>
     <t>IncrEffectDate</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -439,6 +436,10 @@
   <si>
     <t>rateChangeBormNoEq</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT  JSON_VALUE  ("OtherFields",  '$.IncrEffectDate') AS "IncrEffectDate"</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1034,24 +1035,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="21.5" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.88671875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="17.77734375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="35.109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="17.33203125" style="9" customWidth="1"/>
-    <col min="5" max="5" width="6.21875" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.6640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="46.109375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="4.875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="17.75" style="4" customWidth="1"/>
+    <col min="3" max="3" width="35.125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="17.375" style="9" customWidth="1"/>
+    <col min="5" max="5" width="6.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="46.125" style="4" customWidth="1"/>
     <col min="8" max="8" width="41" style="10" customWidth="1"/>
-    <col min="9" max="16384" width="21.44140625" style="5"/>
+    <col min="9" max="16384" width="21.5" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
         <v>23</v>
       </c>
@@ -1069,7 +1070,7 @@
       <c r="I1" s="22"/>
       <c r="J1" s="22"/>
     </row>
-    <row r="2" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="28"/>
       <c r="B2" s="29"/>
       <c r="C2" s="11" t="s">
@@ -1085,7 +1086,7 @@
       <c r="I2" s="22"/>
       <c r="J2" s="22"/>
     </row>
-    <row r="3" spans="1:10" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="33" t="s">
         <v>27</v>
       </c>
@@ -1103,7 +1104,7 @@
       <c r="I3" s="22"/>
       <c r="J3" s="22"/>
     </row>
-    <row r="4" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
         <v>28</v>
       </c>
@@ -1121,7 +1122,7 @@
       <c r="I4" s="22"/>
       <c r="J4" s="22"/>
     </row>
-    <row r="5" spans="1:10" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="33" x14ac:dyDescent="0.25">
       <c r="A5" s="33" t="s">
         <v>29</v>
       </c>
@@ -1137,7 +1138,7 @@
       <c r="I5" s="22"/>
       <c r="J5" s="22"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="30" t="s">
         <v>30</v>
       </c>
@@ -1151,7 +1152,7 @@
       <c r="I6" s="22"/>
       <c r="J6" s="22"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="30" t="s">
         <v>31</v>
       </c>
@@ -1165,7 +1166,7 @@
       <c r="I7" s="22"/>
       <c r="J7" s="22"/>
     </row>
-    <row r="8" spans="1:10" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>6</v>
       </c>
@@ -1189,7 +1190,7 @@
       </c>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>1</v>
       </c>
@@ -1208,7 +1209,7 @@
       <c r="G9" s="10"/>
       <c r="H9" s="5"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <f>A9+1</f>
         <v>2</v>
@@ -1228,7 +1229,7 @@
       <c r="G10" s="10"/>
       <c r="H10" s="5"/>
     </row>
-    <row r="11" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <f t="shared" ref="A11:A28" si="0">A10+1</f>
         <v>3</v>
@@ -1248,7 +1249,7 @@
       <c r="G11" s="10"/>
       <c r="H11" s="5"/>
     </row>
-    <row r="12" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1268,7 +1269,7 @@
       <c r="G12" s="8"/>
       <c r="H12" s="5"/>
     </row>
-    <row r="13" spans="1:10" ht="48.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1290,7 +1291,7 @@
       </c>
       <c r="H13" s="5"/>
     </row>
-    <row r="14" spans="1:10" ht="115.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="115.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1312,7 +1313,7 @@
       </c>
       <c r="H14" s="5"/>
     </row>
-    <row r="15" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1332,7 +1333,7 @@
       <c r="G15" s="10"/>
       <c r="H15" s="5"/>
     </row>
-    <row r="16" spans="1:10" ht="88.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="88.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1354,7 +1355,7 @@
       </c>
       <c r="H16" s="5"/>
     </row>
-    <row r="17" spans="1:8" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1376,7 +1377,7 @@
       </c>
       <c r="H17" s="5"/>
     </row>
-    <row r="18" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1399,7 +1400,7 @@
       <c r="G18" s="10"/>
       <c r="H18" s="5"/>
     </row>
-    <row r="19" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1422,7 +1423,7 @@
       <c r="G19" s="10"/>
       <c r="H19" s="5"/>
     </row>
-    <row r="20" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1445,7 +1446,7 @@
       <c r="G20" s="10"/>
       <c r="H20" s="5"/>
     </row>
-    <row r="21" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1465,7 +1466,7 @@
       <c r="G21" s="10"/>
       <c r="H21" s="5"/>
     </row>
-    <row r="22" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1485,7 +1486,7 @@
       <c r="G22" s="10"/>
       <c r="H22" s="5"/>
     </row>
-    <row r="23" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1505,7 +1506,7 @@
       <c r="G23" s="10"/>
       <c r="H23" s="5"/>
     </row>
-    <row r="24" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1525,7 +1526,7 @@
       <c r="G24" s="10"/>
       <c r="H24" s="5"/>
     </row>
-    <row r="25" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1542,7 +1543,7 @@
       <c r="G25" s="14"/>
       <c r="H25" s="5"/>
     </row>
-    <row r="26" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1562,7 +1563,7 @@
       <c r="G26" s="8"/>
       <c r="H26" s="5"/>
     </row>
-    <row r="27" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1579,7 +1580,7 @@
       <c r="G27" s="8"/>
       <c r="H27" s="5"/>
     </row>
-    <row r="28" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1599,7 +1600,7 @@
       <c r="G28" s="8"/>
       <c r="H28" s="5"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>21</v>
       </c>
@@ -1617,7 +1618,7 @@
       </c>
       <c r="G29" s="8"/>
       <c r="H29" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -1645,15 +1646,15 @@
       <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.5" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="130" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="58" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>36</v>
       </c>
@@ -1664,7 +1665,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>67</v>
       </c>
@@ -1672,7 +1673,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>75</v>
       </c>
@@ -1683,7 +1684,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>76</v>
       </c>
@@ -1694,9 +1695,9 @@
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>74</v>
@@ -1705,7 +1706,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>70</v>
       </c>
@@ -1713,7 +1714,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>79</v>
       </c>
@@ -1724,7 +1725,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>85</v>
       </c>
@@ -1744,24 +1745,26 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="26.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="26.5" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="2.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="95.109375" customWidth="1"/>
+    <col min="1" max="1" width="2.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.625" customWidth="1"/>
+    <col min="3" max="3" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.625" customWidth="1"/>
+    <col min="7" max="7" width="95.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="34" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B1" s="34"/>
       <c r="C1" s="34"/>
@@ -1771,31 +1774,33 @@
       <c r="G1" s="34"/>
       <c r="H1" s="34"/>
       <c r="I1" s="34"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J1" s="34"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="26">
         <v>1</v>
       </c>
       <c r="B2" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="D2" s="25" t="s">
         <v>101</v>
-      </c>
-      <c r="D2" s="25" t="s">
-        <v>102</v>
       </c>
       <c r="E2" s="25">
         <v>8</v>
       </c>
-      <c r="F2" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="G2" s="24"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="H2" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A1:J1"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L3-帳務作業/LoanRateChange.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L3-帳務作業/LoanRateChange.xlsx
@@ -1,37 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L3-帳務作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L3-帳務作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{551624A9-D39B-4D8F-AC42-9BEC2A79AA12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8925" activeTab="2"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
     <sheet name="OtherFields" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913" refMode="R1C1"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="105">
   <si>
     <t>備註說明</t>
   </si>
@@ -220,14 +211,6 @@
   </si>
   <si>
     <t>DECIMAL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DATE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -441,11 +424,14 @@
     <t>SELECT  JSON_VALUE  ("OtherFields",  '$.IncrEffectDate') AS "IncrEffectDate"</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
+  <si>
+    <t>TIMESTAMP</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -623,14 +609,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
@@ -639,9 +625,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -690,22 +673,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -747,9 +727,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -787,9 +767,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -824,7 +804,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -859,7 +839,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1032,172 +1012,158 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.5" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="17.75" style="4" customWidth="1"/>
-    <col min="3" max="3" width="35.125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="17.375" style="9" customWidth="1"/>
-    <col min="5" max="5" width="6.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="46.125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="41" style="10" customWidth="1"/>
-    <col min="9" max="16384" width="21.5" style="5"/>
+    <col min="1" max="1" width="4.88671875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="17.77734375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="35.109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" style="8" customWidth="1"/>
+    <col min="5" max="5" width="6.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.6640625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="46.109375" style="4" customWidth="1"/>
+    <col min="8" max="8" width="41" style="9" customWidth="1"/>
+    <col min="9" max="16384" width="21.44140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="D1" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1" s="21"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-    </row>
-    <row r="2" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="28"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="11" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" s="20"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="26"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="21"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="33" t="s">
+      <c r="E2" s="20"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="D3" s="23" t="s">
+      <c r="B3" s="31"/>
+      <c r="C3" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="21"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-    </row>
-    <row r="4" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="30" t="s">
+      <c r="E3" s="20"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="32"/>
-      <c r="C4" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="D4" s="16" t="s">
+      <c r="B4" s="30"/>
+      <c r="C4" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="D4" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="E4" s="21"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-    </row>
-    <row r="5" spans="1:10" ht="33" x14ac:dyDescent="0.25">
-      <c r="A5" s="33" t="s">
+      <c r="E4" s="20"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="33"/>
-      <c r="C5" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="D5" s="23"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="30" t="s">
+      <c r="B5" s="31"/>
+      <c r="C5" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D5" s="21"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="30" t="s">
+      <c r="B6" s="29"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="32"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-    </row>
-    <row r="8" spans="1:10" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="B7" s="30"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="20" t="s">
+      <c r="G8" s="19" t="s">
         <v>0</v>
       </c>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>1</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="13" t="s">
         <v>12</v>
       </c>
       <c r="D9" s="4" t="s">
@@ -1206,10 +1172,10 @@
       <c r="E9" s="4">
         <v>7</v>
       </c>
-      <c r="G9" s="10"/>
-      <c r="H9" s="5"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G9" s="9"/>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <f>A9+1</f>
         <v>2</v>
@@ -1217,7 +1183,7 @@
       <c r="B10" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="13" t="s">
         <v>15</v>
       </c>
       <c r="D10" s="4" t="s">
@@ -1226,10 +1192,10 @@
       <c r="E10" s="4">
         <v>3</v>
       </c>
-      <c r="G10" s="10"/>
-      <c r="H10" s="5"/>
-    </row>
-    <row r="11" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G10" s="9"/>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <f t="shared" ref="A11:A28" si="0">A10+1</f>
         <v>3</v>
@@ -1237,7 +1203,7 @@
       <c r="B11" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="14" t="s">
         <v>16</v>
       </c>
       <c r="D11" s="4" t="s">
@@ -1246,38 +1212,38 @@
       <c r="E11" s="4">
         <v>3</v>
       </c>
-      <c r="G11" s="10"/>
-      <c r="H11" s="5"/>
-    </row>
-    <row r="12" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G11" s="9"/>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C12" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="14" t="s">
         <v>17</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E12" s="4">
         <v>8</v>
       </c>
-      <c r="G12" s="8"/>
-      <c r="H12" s="5"/>
-    </row>
-    <row r="13" spans="1:10" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="G12" s="7"/>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C13" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="C13" s="14" t="s">
         <v>18</v>
       </c>
       <c r="D13" s="4" t="s">
@@ -1286,54 +1252,54 @@
       <c r="E13" s="4">
         <v>1</v>
       </c>
-      <c r="G13" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="H13" s="5"/>
-    </row>
-    <row r="14" spans="1:10" ht="115.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G13" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" ht="115.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>86</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E14" s="4">
         <v>1</v>
       </c>
-      <c r="G14" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="H14" s="5"/>
-    </row>
-    <row r="15" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G14" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="17" t="s">
         <v>19</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E15" s="17">
+        <v>55</v>
+      </c>
+      <c r="E15" s="16">
         <v>5</v>
       </c>
-      <c r="G15" s="10"/>
-      <c r="H15" s="5"/>
-    </row>
-    <row r="16" spans="1:10" ht="88.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G15" s="9"/>
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="1:8" ht="88.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1341,43 +1307,43 @@
       <c r="B16" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="15" t="s">
-        <v>87</v>
+      <c r="C16" s="14" t="s">
+        <v>85</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E16" s="4">
         <v>2</v>
       </c>
-      <c r="G16" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="H16" s="5"/>
-    </row>
-    <row r="17" spans="1:8" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="1:8" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C17" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="14" t="s">
         <v>35</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E17" s="4">
         <v>1</v>
       </c>
-      <c r="G17" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="H17" s="5"/>
-    </row>
-    <row r="18" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G17" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1385,7 +1351,7 @@
       <c r="B18" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C18" s="14" t="s">
         <v>33</v>
       </c>
       <c r="D18" s="4" t="s">
@@ -1397,10 +1363,10 @@
       <c r="F18" s="4">
         <v>4</v>
       </c>
-      <c r="G18" s="10"/>
-      <c r="H18" s="5"/>
-    </row>
-    <row r="19" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G18" s="9"/>
+      <c r="H18" s="2"/>
+    </row>
+    <row r="19" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1408,7 +1374,7 @@
       <c r="B19" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="C19" s="14" t="s">
         <v>34</v>
       </c>
       <c r="D19" s="4" t="s">
@@ -1420,10 +1386,10 @@
       <c r="F19" s="4">
         <v>4</v>
       </c>
-      <c r="G19" s="10"/>
-      <c r="H19" s="5"/>
-    </row>
-    <row r="20" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G19" s="9"/>
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1431,7 +1397,7 @@
       <c r="B20" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="14" t="s">
         <v>21</v>
       </c>
       <c r="D20" s="4" t="s">
@@ -1443,10 +1409,10 @@
       <c r="F20" s="4">
         <v>4</v>
       </c>
-      <c r="G20" s="10"/>
-      <c r="H20" s="5"/>
-    </row>
-    <row r="21" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G20" s="9"/>
+      <c r="H20" s="2"/>
+    </row>
+    <row r="21" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1454,39 +1420,39 @@
       <c r="B21" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="C21" s="14" t="s">
         <v>20</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E21" s="4">
         <v>60</v>
       </c>
-      <c r="G21" s="10"/>
-      <c r="H21" s="5"/>
-    </row>
-    <row r="22" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G21" s="9"/>
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C22" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="14" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E22" s="4">
         <v>8</v>
       </c>
-      <c r="G22" s="10"/>
-      <c r="H22" s="5"/>
-    </row>
-    <row r="23" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G22" s="9"/>
+      <c r="H22" s="2"/>
+    </row>
+    <row r="23" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1494,131 +1460,131 @@
       <c r="B23" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="C23" s="14" t="s">
         <v>22</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E23" s="4">
         <v>6</v>
       </c>
-      <c r="G23" s="10"/>
-      <c r="H23" s="5"/>
-    </row>
-    <row r="24" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G23" s="9"/>
+      <c r="H23" s="2"/>
+    </row>
+    <row r="24" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C24" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" s="14" t="s">
         <v>14</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E24" s="4">
         <v>8</v>
       </c>
-      <c r="G24" s="10"/>
-      <c r="H24" s="5"/>
-    </row>
-    <row r="25" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G24" s="9"/>
+      <c r="H24" s="2"/>
+    </row>
+    <row r="25" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="C25" s="14" t="s">
         <v>25</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="G25" s="14"/>
-      <c r="H25" s="5"/>
-    </row>
-    <row r="26" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="G25" s="13"/>
+      <c r="H25" s="2"/>
+    </row>
+    <row r="26" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B26" s="18" t="s">
+      <c r="B26" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="14" t="s">
+      <c r="C26" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E26" s="4">
         <v>6</v>
       </c>
-      <c r="G26" s="8"/>
-      <c r="H26" s="5"/>
-    </row>
-    <row r="27" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G26" s="7"/>
+      <c r="H26" s="2"/>
+    </row>
+    <row r="27" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B27" s="18" t="s">
+      <c r="B27" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="C27" s="15" t="s">
+      <c r="C27" s="14" t="s">
         <v>26</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="G27" s="8"/>
-      <c r="H27" s="5"/>
-    </row>
-    <row r="28" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="G27" s="7"/>
+      <c r="H27" s="2"/>
+    </row>
+    <row r="28" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="C28" s="15" t="s">
+      <c r="C28" s="14" t="s">
         <v>11</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E28" s="4">
         <v>6</v>
       </c>
-      <c r="G28" s="8"/>
-      <c r="H28" s="5"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G28" s="7"/>
+      <c r="H28" s="2"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>21</v>
       </c>
-      <c r="B29" s="18" t="s">
+      <c r="B29" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="D29" s="4" t="s">
         <v>96</v>
-      </c>
-      <c r="C29" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>98</v>
       </c>
       <c r="E29" s="4">
         <v>2000</v>
       </c>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8" t="s">
-        <v>102</v>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1638,7 +1604,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
@@ -1646,94 +1612,94 @@
       <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="43.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.44140625" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="130" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="58" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="B6" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="B7" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="C7" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C7" s="3" t="s">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>85</v>
-      </c>
       <c r="B8" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1744,59 +1710,59 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="26.5" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="26.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.625" customWidth="1"/>
-    <col min="3" max="3" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="2.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="2.625" customWidth="1"/>
-    <col min="7" max="7" width="95.125" customWidth="1"/>
+    <col min="1" max="1" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
+    <col min="3" max="3" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.6640625" customWidth="1"/>
+    <col min="7" max="7" width="95.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
-        <v>105</v>
-      </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="26">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="24">
         <v>1</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="C2" s="25" t="s">
-        <v>100</v>
-      </c>
-      <c r="D2" s="25" t="s">
+      <c r="E2" s="23">
+        <v>8</v>
+      </c>
+      <c r="F2" s="23"/>
+      <c r="G2" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="E2" s="25">
-        <v>8</v>
-      </c>
-      <c r="F2" s="25"/>
-      <c r="G2" s="27" t="s">
-        <v>103</v>
-      </c>
-      <c r="H2" s="24"/>
+      <c r="H2" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="1">
